--- a/R_Logit_Models/Mode Choice Models/Cost/Cost Models - Outputs.xlsx
+++ b/R_Logit_Models/Mode Choice Models/Cost/Cost Models - Outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\University\Summer 2020\TMG\GitHub_PORPOS\PORPOS-TMG\R_Logit_Models\Mode Choice Models\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FFF11A-5CF1-4BB9-AF53-132FF7DAEC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F3F4F25-2E18-4449-BEBB-424556CB2FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3588" windowWidth="12384" windowHeight="8820" xr2:uid="{E2A07D36-D0BF-42F2-A286-AED32AEDA0FF}"/>
+    <workbookView xWindow="0" yWindow="3540" windowWidth="12384" windowHeight="8820" xr2:uid="{E2A07D36-D0BF-42F2-A286-AED32AEDA0FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
   <si>
     <t>Active Cost ($0 - 1)</t>
   </si>
   <si>
-    <t>ASC_Active</t>
-  </si>
-  <si>
     <t>ASC_Auto</t>
   </si>
   <si>
@@ -92,14 +89,23 @@
     <t>Sig.</t>
   </si>
   <si>
-    <t>Accuracy of Model without Cost:</t>
+    <t>ASC_Transit</t>
+  </si>
+  <si>
+    <t>"No Cost" Model</t>
+  </si>
+  <si>
+    <t>3 Cost Betas</t>
+  </si>
+  <si>
+    <t>1 Cost Beta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +124,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,21 +202,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -211,6 +221,7 @@
     <xf numFmtId="11" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C116AD-75FF-4602-BFB2-8725E042CA57}">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,301 +551,241 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3">
-        <v>0.78063510000000003</v>
-      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-5.1743809000000001</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-4.1611018</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-9.1553899999999994E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-2.44914E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-5.7587000000000003E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7.5160000000000002E-11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.56927000000000005</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7">
+        <v>-3468</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
-        <v>3.7075953699999999</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>4.0086763400000001</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="14">
-        <v>-1.1891938399999999</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13">
-        <v>-1.1192895899999999</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14">
-        <v>-7.3343999999999996E-3</v>
-      </c>
-      <c r="D9" s="15">
-        <v>6.4389999999999999E-15</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="13">
-        <v>-7.7001500000000002E-3</v>
-      </c>
-      <c r="I9" s="15">
-        <v>2.5600000000000001E-8</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14">
-        <v>-9.5529059999999999E-2</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="13">
-        <v>-9.3756629999999994E-2</v>
-      </c>
-      <c r="I10" s="15">
-        <v>2.2200000000000001E-16</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14">
-        <v>-5.2825669999999998E-2</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="13">
-        <v>-3.5482430000000002E-2</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13">
-        <v>-0.21354115000000001</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="7">
+        <v>0.74548080000000005</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="13">
-        <v>-0.10029173</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.13928929000000001</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.47204000000000002</v>
-      </c>
-      <c r="E13" s="14"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.57128999999999996</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="14">
-        <v>-3.465385E-2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>4.521E-2</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="9">
-        <v>-3451.8</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0.57572000000000001</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.74671160000000003</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9">
-        <v>-3416.1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.74915209999999999</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -842,307 +793,608 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>-5.0259691599999998</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>-5.1300417200000004</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-3.83692615</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="G20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-4.01285851</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-9.5430409999999993E-2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>-9.3716820000000006E-2</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4.7769999999999997E-8</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9">
+        <v>-5.2818579999999997E-2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-3.5251200000000003E-2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>-7.33287E-3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>6.4389999999999999E-15</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="9">
+        <v>-7.6621900000000001E-3</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>-0.12477763</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.51044</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9">
+        <v>-9.8192580000000002E-2</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2.2200000000000001E-16</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-3.4630979999999999E-2</v>
+      </c>
+      <c r="D25" s="9">
+        <v>4.5350000000000001E-2</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.57121</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>-0.21348965</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="7">
+        <v>-3452.4</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.57571000000000006</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="H27" s="7">
+        <v>0.74673820000000002</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="C28" s="7">
+        <v>-3416.1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.74915520000000002</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9">
+        <v>-4.8722024099999999</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9">
+        <v>-5.0385248799999998</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
+      <c r="C36" s="9">
+        <v>-3.6832678699999999</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="9">
+        <v>-4.0287214799999997</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9">
+        <v>-9.5280340000000005E-2</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="9">
+        <v>-9.1781150000000006E-2</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="9">
+        <v>-5.280953E-2</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="9">
+        <v>-2.418238E-2</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9">
+        <v>-7.3296899999999998E-3</v>
+      </c>
+      <c r="D39" s="11">
+        <v>6.661E-15</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="9">
+        <v>-5.6998700000000001E-3</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1.78656E-3</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="9">
+        <v>2.9117800000000001E-3</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1.2519999999999999E-10</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="9">
+        <v>-3.4606709999999999E-2</v>
+      </c>
+      <c r="D41" s="9">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.56942000000000004</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-0.21345914999999999</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="7">
+        <v>-3466.8</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.57574000000000003</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="H43" s="7">
+        <v>0.74550620000000001</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="13">
-        <v>3.7496852899999999</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <v>4.3633796</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="14">
-        <v>-1.1891989599999999</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="13">
-        <v>-1.0174349</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="14">
-        <v>-7.3325200000000004E-3</v>
-      </c>
-      <c r="D24" s="15">
-        <v>6.4389999999999999E-15</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="13">
-        <v>-5.8415999999999997E-3</v>
-      </c>
-      <c r="I24" s="13">
-        <v>2.8129999999999999E-2</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="14">
-        <v>-9.5404870000000003E-2</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="13">
-        <v>-9.1847600000000001E-2</v>
-      </c>
-      <c r="I25" s="15">
-        <v>4.0130000000000001E-11</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14">
-        <v>-5.2813140000000001E-2</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="13">
-        <v>-2.4942800000000001E-2</v>
-      </c>
-      <c r="I26" s="14">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="14">
-        <v>-0.2134741</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="13">
-        <v>-4.1241999999999997E-3</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="13">
-        <v>4.7752E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>0.79562999999999995</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0.56957000000000002</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="14">
-        <v>-3.4621770000000003E-2</v>
-      </c>
-      <c r="D29" s="13">
-        <v>4.5409999999999999E-2</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="9">
-        <v>-3465.6</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0.57569000000000004</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0.74550729999999998</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="11">
-        <v>-3416.3</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0.74914990000000004</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="C44" s="7">
+        <v>-3415.9</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.7491641</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1151,6 +1403,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000204E6A80C35814187BF758A988F41F3" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb878799c7473c9a9cb2794a0d7e5ca6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd57f1b2-6fb9-404d-9b6a-5635ef9b0a32" xmlns:ns4="95583baa-c30a-4298-9210-a6b1331004d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db73adf32af40d10560b987880585f13" ns3:_="" ns4:_="">
     <xsd:import namespace="dd57f1b2-6fb9-404d-9b6a-5635ef9b0a32"/>
@@ -1335,22 +1602,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0CB2651-A6A7-45CB-BB38-F60E5661685F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A51A042-0A1A-4C0E-A5F4-535F7380B0CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="95583baa-c30a-4298-9210-a6b1331004d7"/>
+    <ds:schemaRef ds:uri="dd57f1b2-6fb9-404d-9b6a-5635ef9b0a32"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BC8540-382F-4832-9AAE-D40EDADA465B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1367,29 +1644,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0CB2651-A6A7-45CB-BB38-F60E5661685F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A51A042-0A1A-4C0E-A5F4-535F7380B0CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dd57f1b2-6fb9-404d-9b6a-5635ef9b0a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95583baa-c30a-4298-9210-a6b1331004d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>